--- a/Coordenadas.xlsx
+++ b/Coordenadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E043698-AC3F-4674-8886-F70F9B5B226D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C318C9B-AF7A-4CA2-AC6C-87DB2107D0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nickname</t>
   </si>
@@ -34,6 +34,12 @@
     <t>Luffy</t>
   </si>
   <si>
+    <t>b'F\x16v2\xbb\xe1"\x8c\x04s\xb2*\x957K\xe1z\x02&gt;M\x7f\x07\xda\xa8I\x86:\' :\xa8\x0f\xcb\x97\xaf\x8f4\xd6?&amp;\x0f\xef\xf8%\x96{EGE\xe7F\x97e\x91\xdbPmC\xc1w~\x96\xb0A\xcef\xb7\x12%\r4NLS\x06&gt;\x1c\xbc\xb8U\x824\x8a\xe8\xafPau]\'^?h\xa6\x17K\xcb!\xe4\x04CfS\xe7\x02\x16\xd1EsF\r&gt;\x86\tP\xaa-\xa5\x89\r\xb8\xb2G\xe0h\xa62\xe6r|\x8b\xf5\xbd\x93bzK\xc1\xec\x19\xe9\x16/\xbd)Ef\xc9\xad\x84\x8a\xbf\xaeyf\r\x16\xd7\xffK\xb3h\xd9+*\xaf\xb3\xbeB\xd0\x10*\xd7\xd5\x19.r\xbe.z\xf4lSq9\xb5A\xdej\xce=U\xad\xf7_mz3\xe6\xe5R)\x10\x0e\xee\xe2\tP\xa5`\xcd\x068\x08\x98\x89\xb4(\x82e\x83\x1b\xf4\x06\xb8/\x9f?\xf9\xe53VzK_\xae{t@P\xce4\xc9\xcb\nR\xf6\xe8\xd79\xa5j\xde\r\x9cI'</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlNulwl57UPR2nFW4ep293W7eF2DM1VWmeJiQCvkXBOnocaVTNnzCI1E39QUgKxfy8IOBbciCat4rEsFEaRGpsLIr_-Q=='</t>
+  </si>
+  <si>
     <t>Nami</t>
   </si>
   <si>
@@ -43,12 +49,6 @@
     <t>Sanji</t>
   </si>
   <si>
-    <t>b'"\xe7\x81\x16\rf\xe2M\xd1\xe29\xea[\xd1\xb5~\x10\xcel\xe4\x03\x9a\x8amd\xf3\x99\xd9\xd8\xd0f\x9e\xdbi\x1c~\xd1\x99\xd6I\xb92\x9c:\xd5\xef.\xf3J\xf0\xbd[4\x0cD\x07\x0f\xe5&gt;6pw\x1c=m\xa4\xb3\x01r\x9cG99\xfbz\xfcG\x7fg\x1dV[-"\x05\xbe\x7f\xd3/\x95x\xdd6oI\x81\x92\x1e\xc3d\xe0&gt;\xb0bnD\xfc\x97\xba\xf6OyT\x9c\xa0}b\xa0\x06\x85\t.\xe8\x04.&gt;\x19{\xb9\x9a6Z\x01\xfb\x1e\xa6\x9b\xac\xaa\x14\xc7\xc4\x9e\xb1\xb8\xdc\x95t\xff\x87\n\x96|dILV,\xdc\'\x86\x89\x83\xbe\xea\xb1\t\xdcV\xa1\xc0*\xbf\x92+X\x91\x8b@\x1a\x0b\xd2d\x07\xf6|R4\xe9\xdbv\xb52\xf0\xa1\x88\xb7\xb5B\xb0f!\x99[\x00A\xd3c\xec6"\xb4\x0b2\xd0\xac\xdd\x9f\xf2\xfb\x85\xf5\xaa\x913\xb4\x04\x9c\x18m#i2\x89\xf2\x1eQL\xfan\xe9\xa3H\xc4\xcbg\xeal\xd9\x8c8\xac\x87}:\xc2'</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlNA7mqwEQUPgFwjsZpb6DplKUXl02hP1UxzuYcOJbHR2Le2IjP1RuecbEC_AVJGJk225bxy-fjtDInpwExa2OOjrpnQ=='</t>
-  </si>
-  <si>
     <t>Usopp</t>
   </si>
   <si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>Arlong</t>
-  </si>
-  <si>
-    <t>b'Hk\xb6\xdc\xd8\xc5\xda\xd7\xcd\xa22O\xda\xe1\x1f\xd3?F\xae&gt;\xba\xd9\x86\xef\x19\xa8\x8dFlc\xaa\xa7\x0cX\x8d\x9dH\xae\x17\x82\x84i\xd6\x85\xe2G\xf5\x98E\xc7\x86%(\xc5m5{\x02Z\'\xda?$\x7f\xb7\xefu\xf0\x8a\x1ap\x8c\x13A\xd9\xf9\xabz\xeb\x0b\xb5%L\x10\xd1{}\x0b\x9ds\xdc|\xa6\x14*=8.\x92\xbc\x05*+\xbb\x91W\xf7&gt;\x7f\x87\x7f\xa3\xa1\xbfe\x897\x01O\xe8\x98\x9a\x17\x9dF&amp;\xd4\x83i\x82\xc7+\xd9\xe9\x12\xfdv\xd6\x95\t\xc4\xd4s\xc2\xd2:ob\x96\xc4B\xcf"9\xf5\xdbY\xce\x13b\x88l\xf0J\xbb\x8d\xa1p\xe0\x8e&gt;\x9c\x95\xc1Fxd?\xcf\xadF!\xba\x9b\xbe\xd4\xc12q\xe4\x1bC\x9a!o\xca\x92\xe8\xc3.\x81\xa9\x10mQ\xae\xccC\xc7D\x05JluOQ\xab\x1d\nZ\x0e\xb1\x19\x12Y\x18g\x7fj\x16\xa6\x1d\xa7\xee\xe9\x89).\t\xc1 \x96_\x13~%^\xec\xa6\xa0\xa4\xcb\xf8\x97\x07\x8e'</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlNA8ymZaDOUxAa1lKLqyX97dxIjgIZiIFoCpzRfHQpy_WSRp4u7FW4wc2ovUAOLgdhP7TiR1Z9yz9sQ8QkfCYticJmA=='</t>
   </si>
 </sst>
 </file>
@@ -434,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="117.88671875" customWidth="1"/>
+    <col min="2" max="2" width="118.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -452,25 +446,25 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -492,12 +486,6 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Coordenadas.xlsx
+++ b/Coordenadas.xlsx
@@ -1,88 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C318C9B-AF7A-4CA2-AC6C-87DB2107D0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Key_symmetric</t>
-  </si>
-  <si>
-    <t>Coordenadas</t>
-  </si>
-  <si>
-    <t>Luffy</t>
-  </si>
-  <si>
-    <t>b'F\x16v2\xbb\xe1"\x8c\x04s\xb2*\x957K\xe1z\x02&gt;M\x7f\x07\xda\xa8I\x86:\' :\xa8\x0f\xcb\x97\xaf\x8f4\xd6?&amp;\x0f\xef\xf8%\x96{EGE\xe7F\x97e\x91\xdbPmC\xc1w~\x96\xb0A\xcef\xb7\x12%\r4NLS\x06&gt;\x1c\xbc\xb8U\x824\x8a\xe8\xafPau]\'^?h\xa6\x17K\xcb!\xe4\x04CfS\xe7\x02\x16\xd1EsF\r&gt;\x86\tP\xaa-\xa5\x89\r\xb8\xb2G\xe0h\xa62\xe6r|\x8b\xf5\xbd\x93bzK\xc1\xec\x19\xe9\x16/\xbd)Ef\xc9\xad\x84\x8a\xbf\xaeyf\r\x16\xd7\xffK\xb3h\xd9+*\xaf\xb3\xbeB\xd0\x10*\xd7\xd5\x19.r\xbe.z\xf4lSq9\xb5A\xdej\xce=U\xad\xf7_mz3\xe6\xe5R)\x10\x0e\xee\xe2\tP\xa5`\xcd\x068\x08\x98\x89\xb4(\x82e\x83\x1b\xf4\x06\xb8/\x9f?\xf9\xe53VzK_\xae{t@P\xce4\xc9\xcb\nR\xf6\xe8\xd79\xa5j\xde\r\x9cI'</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlNulwl57UPR2nFW4ep293W7eF2DM1VWmeJiQCvkXBOnocaVTNnzCI1E39QUgKxfy8IOBbciCat4rEsFEaRGpsLIr_-Q=='</t>
-  </si>
-  <si>
-    <t>Nami</t>
-  </si>
-  <si>
-    <t>Maripili</t>
-  </si>
-  <si>
-    <t>Sanji</t>
-  </si>
-  <si>
-    <t>Usopp</t>
-  </si>
-  <si>
-    <t>Zoro</t>
-  </si>
-  <si>
-    <t>Shanks</t>
-  </si>
-  <si>
-    <t>Arlong</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,71 +420,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="118.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nickname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Key_symmetric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coordenadas</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>b"6\t\xb1\xce\x87\xbf\xb7\x1e\x8b\x072\x0f\xd1\x1f\x0e\xf1\x00\x9d\xb7\x18SV\x08\xcah8kVU\xeer\xc2{rz\xde\xf4\xca\xfb\x91j]\xa0x\x19e.1\xe4\xbf\x94\xa5[af\x94V&amp;~\x9bc\x80\x85{\xc4Q\x11-\xf9\xc9F[R\n\xa6\xe1IF\xbc&amp;}5\x04\xfa\x9f)\xf3g\xe4A\xad\x971R%\xe2UH\xec\r\x97\x85\xb0\t\x8b\xb4\xda\xa6[\xf7R%\x99E&amp;Z\xe7h^\xe2\xe2\xf4#&gt;&gt;\xe9\xf81\x91\xce\xee6\x98\x02\x06.-b\xa5\x0c\x7f\x1e\tP\x97\x05&amp;\xdc\xcbKA\x88R\xa6\xce\xee\x10_s\xce5'~\x884q\r\x9e\x1a\xf3jj\x05\xa1m\xb4\xae\xf1\x06$\xe0&amp;\xd6&gt;\xc4\x12z\xa4\xa4U?\xf4\xea\x04m\xf3\xb5\x15\xa1\xe06\xa8?!I\xd9\xb4\x88\x0b\xbdL\xd8E9\xd1\xc1!\xe02V\xcf\n\xef\x00\xb1/\x89\xd0iu\xcd\x0f\x8f5@\xa9YE\x8fX\x05\xe5\x8f\xec6\x0fW1\x95\xd5\xf8 \xc1\x9d\xd5="</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlN6NwZ_VQOx-hfNyv_dmEVDL61N8koRV9RrP9c6X8MuHG0eHci4i6yimtkh1rmZeKYe2KL7Pz7C_ozFpplxWZxDLN9A=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b"\x8f,\x1c}\xee\xf7U\x97'?\xdeIN13\xd5)U\xf3\xa1\xac\xe7\xa1\x9e\xd2vY\xbc\xdb\xc0\x8bPluM\x13\x93\xbe\x7f\xcd\xbaK\x1b\\/\x1dq\xd0\xa2\xb1Y8\x91|\xb8\xcd\xf6\x04\xa1\xb1\xf1\x13\x9dP\x12\x03\x1d$\x83\x10\x82\xabDh\n\xb6{\xcc\xad\xf9\xe8\xba\xbb\xd5\x8e4F\x8f\xb1zu\xa0\x19\x11/\xd4\x0e\xa2qE\x10o\x9ce\x18:\x88\xedG\xbe?\x058\x0ew\xf1\xb9S}\x0b\xa6\x83pC\xb0\xc0\x94\x90/\xa4\xb3\\\x0c\x0c\xd6\r!\xf1\xd9\x9b#0\xe5C\xf2\x92\x85\xaf\xaae\xe2\x0e\xe0\xe5\xfbT\x9b_o\x0f6\xe0\xc3\xf3\xf4\xe5\xd4\x88\xad\x18\xda\xcf\xe3\x8dtSF|i\xdc\x9aYi\xb3\xb0\x03DH\xd0\x9c\xf7\xcb\xc5\x0f@\x85\x1a\xa6\xde\xd4\x07f\xdd~\r\x0ba^\xa6\x95|\xc4\xf4_!\x11\xad\xd9\x8ag\xa3\xbfx\x8d\xff8|\xa1e(\x0b\xb7\x18Fzg:\xb6X|\x80kt\x8d\xf0\xc7r-q\xf0\xcfC\x18\xc7\xa0\xaf"</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlOYb-YOXjn9VXrFRbH6wZ4LosZBkORriGiAV4B1HxI2FThXPXOGmmbea_MtD4gxmkotJfVcJ3b1sOlwQ7nuBRdR_KmQ=='</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maripili</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Usopp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shanks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arlong</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b'#\xeb\xc2U\xd5\xbb\x7f\xfb\x0f,39\xa4)#\r)\x0e\x01\x87t\x0b\xb9@\'\xc5\xcd\x90]=\xee\xf0\xe4\x1ca\\\x15\n$2\xccb\x1b9\xe0J\xa7L \x95\xf4PGL\xf1\x17+\xa0u\x0f5eQa\x9dp\x92\xe5\xf8\x8e,xO\xd2\xd0/"L\xd4\x1c\xf0a/\t\x91\xf9\xc0\x91\x81\xff.@D\xa8\xf0\xec\xf81\x03\xbf\x13\x10\xd3\x99\x8f\xfc\xb5\xba\xe2\x19\xb6\xa7^+\xb0&lt;=\xd3+E\xd8R4" [J\xb6z\x15L}0\x12\xec\xed\xf2\xc5\xde\x14\xea\x98p7\xd3\xd8-\x9a\x8av0\xa4&gt;\xf2{\x1b\xd6\x19\xdb\x07M\x1fv\xf2A\x11\xdf&lt;g\xa0\xa2:3\xa5\xf6x\xbdb^\x1cJ\x0b\xa8~\xb6\xf5\xff\x16\x11n\xe5g\xe5J4\xc1\xbf\xe5\xc3\xec\'^(*\xd6C\xe3\xf6\xe1;\x8b4\xc98X9OM`\xeb\xbf\x07\x13p\xe0\xaa\x9c\x92\xa6\x16"x\\\xa8\xb4\nw0\xb9\xde\x0e\xa7\xaa\xaa\xc4\x13WL\xdd\x98k\xe7\xfd\xf3\x92['</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlNvDQYh94aBoH2mvXEItIY2MKasvxU8c6exQD4oDKxRo1qUXa93RQmhYIYkfBMrXVMuSqacyZwJdm2GTuuFGSfxvs0w=='</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Coordenadas.xlsx
+++ b/Coordenadas.xlsx
@@ -490,8 +490,16 @@
           <t>Maripili</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b"+\x8d\xffM\xe1Ti\xd1S^\xc4s\xc4\xec\xaegF\x03hB|NWLm\xcb[\xc9\xcb\x9c\x9ei\xa5\xbb|\x9d\x84['\xb91\x83\x90\x1e\xd2K\xf2[\x035\x9e\xeb\xf7\xa3\x93\xf5\xb0&amp;&lt;\xe6v\x96\x89\x8e\xb8?%\x82\\\xca\xe7oV\x0c\xadU\xd2\x9b\x00\x1b#\xe07\x8c\xed\xfc\xb2\xb5{\xcb)\xd49\xaf\x99\xac^\xc3\xdbO\x0bR\xbfZ&amp;\xa5\x8b^\xe5\x7f\x0e\xc5\x04\xac\xa4\x97\x17\xeaC\x1a\xf2\xc0[7\x81Z\x02\xe7\xae\xf7e3[\xf9py\xde\xdf4\xd3\xea\x868R\xe4\tSPqN\xa4\xd6.Z\xe37\xf8\n\xfa\x84\x94R\xfa\x9dX\x06F\xa5SF}h\xab\x93\xc0$\xb7\xe7\x1b(\xe6\x98.\x14/\x7f\xca\x83\xf6\x8c\xd7J\xc9\x0e\xaf\x03B&amp;\xeaB=f\x98\xe2\x92L\x91\xa0n\x89:\xf1g\xeb%\xaeUK(\xba\xc6\xbef\x16zehG\xea=\xaaS\xc4o\xae|\x08\xf5\xbe]T\x8dd\xef\xa4L-N\xe8D\n\x0c\xe5\xb4y\xa8"</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlOtRCmpIkP4Z9uUZnV8kFi6TSCh4UnjqS7_t3qfft3lLKmjOLzrauGuXgD2gnN_sjIa5YzEBsrt2wSQDJBNpBYu03Qg=='</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -499,8 +507,16 @@
           <t>Sanji</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>b'\x15H\xd3\xd3\xcf\xec|\xf6\xac\xf9\xd3\xe9\xe9\x94\xf1\xeaa-T\x9f\xc2.e\x15\xafd\xd1\xce=L\xc9\xc3\xe8\x1e4-\xd3R\x9a\xc6\xa5X-\x16a2w\x0fz\xcbFw\x9f\x1f\xcePf\xbb\xf8\x88\xdeA\xfd\xba\x14J\x9dC\xe3\x7f&gt;\x94F\xcf\x0bh\xa7$\xcd\xaeNI)\xa2\xe4&lt;\xfe&amp;\xce\x8a\x94`N8;\xd3\x18\xe4\x1c`\x82J&gt;\xd2\xae\x8f\xae\xd4\xce\xc7\x96\xcdeb\x15VA\x99\xc93\x0f/\xeb\xf6\x9f\x19|\xb0\xf6\x98\xb1\xc9\xb3\x99u\xb3&lt;\x17*\x92%\xb5\x13s\xe5\xf4\xb0$n\xa9Q\x9b\xeb\x1f\x8f\t_\x0f\xaf{\xa0i\xfd\xda\x8a\xa5$\xc4\x89\x90\x99b\x1a\xdc\xe5\xca{f\x12\xde\x06\xc0orJ\xeaH\xa5H\xfb\xbb\xb8\x8c5zV\xa4N\xc29\xf0\xa8\x9a\xaemC\x853\xda\x15\x01\xa6\xaa5I\xb0+\xa6\xa7\x02&lt;\x9c\x11\x1a\xe0\x7f_\xf0\xa9\x1d0v\xa2s3f\x9ds\x83\xb1l\xba\xf0O\x80D\xa6\xf8\xd0F\xf1\xf3\x04L\x9d '</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlOtPiomb0JFqbBEbxYATf_cEGJXa7OTvG5QaKI1o_XQuA91Yi7lw1xc2cGFEzMGJL4p1rOYLoOmD_zg9aLZK6YIUmybt5dSNE1plcxb2QJBXkBdw='</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">

--- a/Coordenadas.xlsx
+++ b/Coordenadas.xlsx
@@ -1,37 +1,118 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E372454-E92A-4346-A98F-FE3FA44E3856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView minimized="1" xWindow="3005" yWindow="3005" windowWidth="19534" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>Key_symmetric</t>
+  </si>
+  <si>
+    <t>Coordenadas</t>
+  </si>
+  <si>
+    <t>Firma</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>b'\x07\xc6\xfb\xca\x1e\xae\xe1&gt;\xe4.\xae\x89Q\xf1B*\x19.^9\xfcN\xe2\xa9\xd3k\xa5\xfb\n\x14\xe5\xdd\xd7G\xc5\xaf6B\xaf\x94\xb1&gt;\x06\x0cUP\x04,\x0c\xdfF\x15\x10\xab\x84S\xd5\xa67\xda5\xdb\x9a\xc12{"\x0e&lt;[}\xfe?\x07\xe7\x06\x1ex.\x9e\xa0\xf0\xcd\xdd\t\x0fc\xc7\xd2\t\xd2\xe0\x9a\xe1S\xf6\xe5"\x1a5\xc7\x90j\x91-{L\x99\xc5b\xd32\xe7C\x82`\xe2!w\x89_\xc42\x04\x8a\xf3/1\x05\x86\x07,0\xaa\x81\xf4\xc1C\xf8\xed\x10\xc3\x11\xce(\x006\x08\xf2\x85\xadT\x0e\xde\xcd9t\xef\x84\x92\xe6#\xe7\xd2\x86Rv\x83\x80\xdc\xa7\xa1\x82\xde\x01\xcdF\x9d\xbd8\xd9)\xbau\xae\x1d\x8c\xfe\xeb\t}\x17\x91C\xfe\xd9\xa8\xcb\x9b\xab\xc3\xf5]\xf9P\xad\xe4p\x88\xf6c\xa9\x1eW+\x06\xf5\xe6\x1b\x91$\x91X=\xe8\xea\xd1DU\xf7\x97\xb2\xd6HZ\x11N\xc5\x88xLG \xc9\x08\x1aA?m\xe6\xb2\x8f\x9aQtn'</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlTPauf324nCWhE_y71FlloAxj6HOm8J_MITFCrP7BlgABMWTOP-D_y8uH1nK4YV_qbucFlI9atAkTUQa6Q-QQOFg8rA=='</t>
+  </si>
+  <si>
+    <t>b'v\xc8\xcbP\xa8\x8et\x1c\xc4$\xab}\xfb\xad[o\xc7\xcd\x86\xe3\x8e\xa1\xeb4\xc8\xd6\xf1\x19\xab\xf9\xfe\x82\xdfP\xfa\x96]\xcc\xee\xdai\xd9\x8eAB\x1fO\xdc\x1a\x02\x91]\x90\xa1\xef\xe9\xd3f\xdaM\xddb\x92k\xd76\xbcO\x12Xk{\xdb \x03\x97j\xc7: \xff\xa8\x8a\xfa\xf4\xe1\x840\xb8\xf3\xcaV\xa3$\x0c\x85\xeb\x0e\x90\xfd\xda\x1a\xdb\x1e\xbe\xb84\xd7\xf2K\xaa\xed"i\xfbF-\xc6\xdb\xf5U\xf9\x06+\x13\xd9\xb6\x83\xdb^\xac^[\xa2\xe0Q\x1ey\xe1&amp;\xe4`\x87\xfa\xcc\x86\xbf5k\xfe\xdcA\x13\xa6\x92r\x8e\xd6/\x90o7\xf0%[\x08\xb7\xe4\xee\x04\x11\xe8?\xf9G\xa2\x1c\xf2\x16\x8aj\x0e\\\xac\xfd\xeb\x8b\xfe\xe3\xf4\xf7X\xdc:\xc0\xb9\x0b?0\x9f{\xa9\x07\xa8&lt;\xfe\x0cO8\xfbhS\x1cmP\xc0\xa6\xd5\x95\xf6\xd9\xe8X\x98\xee\xc6\x02\xc5\xb1\xf2\xdet\x06\x8dw\xecte^\xa8(\xc7}\x9c\x9bh\xd0S\x01!Ln\xeao0\xaf'</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>b"\x8f,\x1c}\xee\xf7U\x97'?\xdeIN13\xd5)U\xf3\xa1\xac\xe7\xa1\x9e\xd2vY\xbc\xdb\xc0\x8bPluM\x13\x93\xbe\x7f\xcd\xbaK\x1b\\/\x1dq\xd0\xa2\xb1Y8\x91|\xb8\xcd\xf6\x04\xa1\xb1\xf1\x13\x9dP\x12\x03\x1d$\x83\x10\x82\xabDh\n\xb6{\xcc\xad\xf9\xe8\xba\xbb\xd5\x8e4F\x8f\xb1zu\xa0\x19\x11/\xd4\x0e\xa2qE\x10o\x9ce\x18:\x88\xedG\xbe?\x058\x0ew\xf1\xb9S}\x0b\xa6\x83pC\xb0\xc0\x94\x90/\xa4\xb3\\\x0c\x0c\xd6\r!\xf1\xd9\x9b#0\xe5C\xf2\x92\x85\xaf\xaae\xe2\x0e\xe0\xe5\xfbT\x9b_o\x0f6\xe0\xc3\xf3\xf4\xe5\xd4\x88\xad\x18\xda\xcf\xe3\x8dtSF|i\xdc\x9aYi\xb3\xb0\x03DH\xd0\x9c\xf7\xcb\xc5\x0f@\x85\x1a\xa6\xde\xd4\x07f\xdd~\r\x0ba^\xa6\x95|\xc4\xf4_!\x11\xad\xd9\x8ag\xa3\xbfx\x8d\xff8|\xa1e(\x0b\xb7\x18Fzg:\xb6X|\x80kt\x8d\xf0\xc7r-q\xf0\xcfC\x18\xc7\xa0\xaf"</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlOYb-YOXjn9VXrFRbH6wZ4LosZBkORriGiAV4B1HxI2FThXPXOGmmbea_MtD4gxmkotJfVcJ3b1sOlwQ7nuBRdR_KmQ=='</t>
+  </si>
+  <si>
+    <t>Maripili</t>
+  </si>
+  <si>
+    <t>b"+\x8d\xffM\xe1Ti\xd1S^\xc4s\xc4\xec\xaegF\x03hB|NWLm\xcb[\xc9\xcb\x9c\x9ei\xa5\xbb|\x9d\x84['\xb91\x83\x90\x1e\xd2K\xf2[\x035\x9e\xeb\xf7\xa3\x93\xf5\xb0&amp;&lt;\xe6v\x96\x89\x8e\xb8?%\x82\\\xca\xe7oV\x0c\xadU\xd2\x9b\x00\x1b#\xe07\x8c\xed\xfc\xb2\xb5{\xcb)\xd49\xaf\x99\xac^\xc3\xdbO\x0bR\xbfZ&amp;\xa5\x8b^\xe5\x7f\x0e\xc5\x04\xac\xa4\x97\x17\xeaC\x1a\xf2\xc0[7\x81Z\x02\xe7\xae\xf7e3[\xf9py\xde\xdf4\xd3\xea\x868R\xe4\tSPqN\xa4\xd6.Z\xe37\xf8\n\xfa\x84\x94R\xfa\x9dX\x06F\xa5SF}h\xab\x93\xc0$\xb7\xe7\x1b(\xe6\x98.\x14/\x7f\xca\x83\xf6\x8c\xd7J\xc9\x0e\xaf\x03B&amp;\xeaB=f\x98\xe2\x92L\x91\xa0n\x89:\xf1g\xeb%\xaeUK(\xba\xc6\xbef\x16zehG\xea=\xaaS\xc4o\xae|\x08\xf5\xbe]T\x8dd\xef\xa4L-N\xe8D\n\x0c\xe5\xb4y\xa8"</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlOtRCmpIkP4Z9uUZnV8kFi6TSCh4UnjqS7_t3qfft3lLKmjOLzrauGuXgD2gnN_sjIa5YzEBsrt2wSQDJBNpBYu03Qg=='</t>
+  </si>
+  <si>
+    <t>Sanji</t>
+  </si>
+  <si>
+    <t>b'\x15H\xd3\xd3\xcf\xec|\xf6\xac\xf9\xd3\xe9\xe9\x94\xf1\xeaa-T\x9f\xc2.e\x15\xafd\xd1\xce=L\xc9\xc3\xe8\x1e4-\xd3R\x9a\xc6\xa5X-\x16a2w\x0fz\xcbFw\x9f\x1f\xcePf\xbb\xf8\x88\xdeA\xfd\xba\x14J\x9dC\xe3\x7f&gt;\x94F\xcf\x0bh\xa7$\xcd\xaeNI)\xa2\xe4&lt;\xfe&amp;\xce\x8a\x94`N8;\xd3\x18\xe4\x1c`\x82J&gt;\xd2\xae\x8f\xae\xd4\xce\xc7\x96\xcdeb\x15VA\x99\xc93\x0f/\xeb\xf6\x9f\x19|\xb0\xf6\x98\xb1\xc9\xb3\x99u\xb3&lt;\x17*\x92%\xb5\x13s\xe5\xf4\xb0$n\xa9Q\x9b\xeb\x1f\x8f\t_\x0f\xaf{\xa0i\xfd\xda\x8a\xa5$\xc4\x89\x90\x99b\x1a\xdc\xe5\xca{f\x12\xde\x06\xc0orJ\xeaH\xa5H\xfb\xbb\xb8\x8c5zV\xa4N\xc29\xf0\xa8\x9a\xaemC\x853\xda\x15\x01\xa6\xaa5I\xb0+\xa6\xa7\x02&lt;\x9c\x11\x1a\xe0\x7f_\xf0\xa9\x1d0v\xa2s3f\x9ds\x83\xb1l\xba\xf0O\x80D\xa6\xf8\xd0F\xf1\xf3\x04L\x9d '</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlOtPiomb0JFqbBEbxYATf_cEGJXa7OTvG5QaKI1o_XQuA91Yi7lw1xc2cGFEzMGJL4p1rOYLoOmD_zg9aLZK6YIUmybt5dSNE1plcxb2QJBXkBdw='</t>
+  </si>
+  <si>
+    <t>Usopp</t>
+  </si>
+  <si>
+    <t>Zoro</t>
+  </si>
+  <si>
+    <t>Shanks</t>
+  </si>
+  <si>
+    <t>Arlong</t>
+  </si>
+  <si>
+    <t>b'#\xeb\xc2U\xd5\xbb\x7f\xfb\x0f,39\xa4)#\r)\x0e\x01\x87t\x0b\xb9@\'\xc5\xcd\x90]=\xee\xf0\xe4\x1ca\\\x15\n$2\xccb\x1b9\xe0J\xa7L \x95\xf4PGL\xf1\x17+\xa0u\x0f5eQa\x9dp\x92\xe5\xf8\x8e,xO\xd2\xd0/"L\xd4\x1c\xf0a/\t\x91\xf9\xc0\x91\x81\xff.@D\xa8\xf0\xec\xf81\x03\xbf\x13\x10\xd3\x99\x8f\xfc\xb5\xba\xe2\x19\xb6\xa7^+\xb0&lt;=\xd3+E\xd8R4" [J\xb6z\x15L}0\x12\xec\xed\xf2\xc5\xde\x14\xea\x98p7\xd3\xd8-\x9a\x8av0\xa4&gt;\xf2{\x1b\xd6\x19\xdb\x07M\x1fv\xf2A\x11\xdf&lt;g\xa0\xa2:3\xa5\xf6x\xbdb^\x1cJ\x0b\xa8~\xb6\xf5\xff\x16\x11n\xe5g\xe5J4\xc1\xbf\xe5\xc3\xec\'^(*\xd6C\xe3\xf6\xe1;\x8b4\xc98X9OM`\xeb\xbf\x07\x13p\xe0\xaa\x9c\x92\xa6\x16"x\\\xa8\xb4\nw0\xb9\xde\x0e\xa7\xaa\xaa\xc4\x13WL\xdd\x98k\xe7\xfd\xf3\x92['</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlNvDQYh94aBoH2mvXEItIY2MKasvxU8c6exQD4oDKxRo1qUXa93RQmhYIYkfBMrXVMuSqacyZwJdm2GTuuFGSfxvs0w=='</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +127,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,146 +451,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="52.88671875" customWidth="1"/>
+    <col min="3" max="3" width="46.5546875" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nickname</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Key_symmetric</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Coordenadas</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Luffy</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>b"6\t\xb1\xce\x87\xbf\xb7\x1e\x8b\x072\x0f\xd1\x1f\x0e\xf1\x00\x9d\xb7\x18SV\x08\xcah8kVU\xeer\xc2{rz\xde\xf4\xca\xfb\x91j]\xa0x\x19e.1\xe4\xbf\x94\xa5[af\x94V&amp;~\x9bc\x80\x85{\xc4Q\x11-\xf9\xc9F[R\n\xa6\xe1IF\xbc&amp;}5\x04\xfa\x9f)\xf3g\xe4A\xad\x971R%\xe2UH\xec\r\x97\x85\xb0\t\x8b\xb4\xda\xa6[\xf7R%\x99E&amp;Z\xe7h^\xe2\xe2\xf4#&gt;&gt;\xe9\xf81\x91\xce\xee6\x98\x02\x06.-b\xa5\x0c\x7f\x1e\tP\x97\x05&amp;\xdc\xcbKA\x88R\xa6\xce\xee\x10_s\xce5'~\x884q\r\x9e\x1a\xf3jj\x05\xa1m\xb4\xae\xf1\x06$\xe0&amp;\xd6&gt;\xc4\x12z\xa4\xa4U?\xf4\xea\x04m\xf3\xb5\x15\xa1\xe06\xa8?!I\xd9\xb4\x88\x0b\xbdL\xd8E9\xd1\xc1!\xe02V\xcf\n\xef\x00\xb1/\x89\xd0iu\xcd\x0f\x8f5@\xa9YE\x8fX\x05\xe5\x8f\xec6\x0fW1\x95\xd5\xf8 \xc1\x9d\xd5="</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>b'gAAAAABlN6NwZ_VQOx-hfNyv_dmEVDL61N8koRV9RrP9c6X8MuHG0eHci4i6yimtkh1rmZeKYe2KL7Pz7C_ozFpplxWZxDLN9A=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nami</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>b"\x8f,\x1c}\xee\xf7U\x97'?\xdeIN13\xd5)U\xf3\xa1\xac\xe7\xa1\x9e\xd2vY\xbc\xdb\xc0\x8bPluM\x13\x93\xbe\x7f\xcd\xbaK\x1b\\/\x1dq\xd0\xa2\xb1Y8\x91|\xb8\xcd\xf6\x04\xa1\xb1\xf1\x13\x9dP\x12\x03\x1d$\x83\x10\x82\xabDh\n\xb6{\xcc\xad\xf9\xe8\xba\xbb\xd5\x8e4F\x8f\xb1zu\xa0\x19\x11/\xd4\x0e\xa2qE\x10o\x9ce\x18:\x88\xedG\xbe?\x058\x0ew\xf1\xb9S}\x0b\xa6\x83pC\xb0\xc0\x94\x90/\xa4\xb3\\\x0c\x0c\xd6\r!\xf1\xd9\x9b#0\xe5C\xf2\x92\x85\xaf\xaae\xe2\x0e\xe0\xe5\xfbT\x9b_o\x0f6\xe0\xc3\xf3\xf4\xe5\xd4\x88\xad\x18\xda\xcf\xe3\x8dtSF|i\xdc\x9aYi\xb3\xb0\x03DH\xd0\x9c\xf7\xcb\xc5\x0f@\x85\x1a\xa6\xde\xd4\x07f\xdd~\r\x0ba^\xa6\x95|\xc4\xf4_!\x11\xad\xd9\x8ag\xa3\xbfx\x8d\xff8|\xa1e(\x0b\xb7\x18Fzg:\xb6X|\x80kt\x8d\xf0\xc7r-q\xf0\xcfC\x18\xc7\xa0\xaf"</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>b'gAAAAABlOYb-YOXjn9VXrFRbH6wZ4LosZBkORriGiAV4B1HxI2FThXPXOGmmbea_MtD4gxmkotJfVcJ3b1sOlwQ7nuBRdR_KmQ=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Maripili</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>b"+\x8d\xffM\xe1Ti\xd1S^\xc4s\xc4\xec\xaegF\x03hB|NWLm\xcb[\xc9\xcb\x9c\x9ei\xa5\xbb|\x9d\x84['\xb91\x83\x90\x1e\xd2K\xf2[\x035\x9e\xeb\xf7\xa3\x93\xf5\xb0&amp;&lt;\xe6v\x96\x89\x8e\xb8?%\x82\\\xca\xe7oV\x0c\xadU\xd2\x9b\x00\x1b#\xe07\x8c\xed\xfc\xb2\xb5{\xcb)\xd49\xaf\x99\xac^\xc3\xdbO\x0bR\xbfZ&amp;\xa5\x8b^\xe5\x7f\x0e\xc5\x04\xac\xa4\x97\x17\xeaC\x1a\xf2\xc0[7\x81Z\x02\xe7\xae\xf7e3[\xf9py\xde\xdf4\xd3\xea\x868R\xe4\tSPqN\xa4\xd6.Z\xe37\xf8\n\xfa\x84\x94R\xfa\x9dX\x06F\xa5SF}h\xab\x93\xc0$\xb7\xe7\x1b(\xe6\x98.\x14/\x7f\xca\x83\xf6\x8c\xd7J\xc9\x0e\xaf\x03B&amp;\xeaB=f\x98\xe2\x92L\x91\xa0n\x89:\xf1g\xeb%\xaeUK(\xba\xc6\xbef\x16zehG\xea=\xaaS\xc4o\xae|\x08\xf5\xbe]T\x8dd\xef\xa4L-N\xe8D\n\x0c\xe5\xb4y\xa8"</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>b'gAAAAABlOtRCmpIkP4Z9uUZnV8kFi6TSCh4UnjqS7_t3qfft3lLKmjOLzrauGuXgD2gnN_sjIa5YzEBsrt2wSQDJBNpBYu03Qg=='</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sanji</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>b'\x15H\xd3\xd3\xcf\xec|\xf6\xac\xf9\xd3\xe9\xe9\x94\xf1\xeaa-T\x9f\xc2.e\x15\xafd\xd1\xce=L\xc9\xc3\xe8\x1e4-\xd3R\x9a\xc6\xa5X-\x16a2w\x0fz\xcbFw\x9f\x1f\xcePf\xbb\xf8\x88\xdeA\xfd\xba\x14J\x9dC\xe3\x7f&gt;\x94F\xcf\x0bh\xa7$\xcd\xaeNI)\xa2\xe4&lt;\xfe&amp;\xce\x8a\x94`N8;\xd3\x18\xe4\x1c`\x82J&gt;\xd2\xae\x8f\xae\xd4\xce\xc7\x96\xcdeb\x15VA\x99\xc93\x0f/\xeb\xf6\x9f\x19|\xb0\xf6\x98\xb1\xc9\xb3\x99u\xb3&lt;\x17*\x92%\xb5\x13s\xe5\xf4\xb0$n\xa9Q\x9b\xeb\x1f\x8f\t_\x0f\xaf{\xa0i\xfd\xda\x8a\xa5$\xc4\x89\x90\x99b\x1a\xdc\xe5\xca{f\x12\xde\x06\xc0orJ\xeaH\xa5H\xfb\xbb\xb8\x8c5zV\xa4N\xc29\xf0\xa8\x9a\xaemC\x853\xda\x15\x01\xa6\xaa5I\xb0+\xa6\xa7\x02&lt;\x9c\x11\x1a\xe0\x7f_\xf0\xa9\x1d0v\xa2s3f\x9ds\x83\xb1l\xba\xf0O\x80D\xa6\xf8\xd0F\xf1\xf3\x04L\x9d '</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>b'gAAAAABlOtPiomb0JFqbBEbxYATf_cEGJXa7OTvG5QaKI1o_XQuA91Yi7lw1xc2cGFEzMGJL4p1rOYLoOmD_zg9aLZK6YIUmybt5dSNE1plcxb2QJBXkBdw='</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Usopp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Zoro</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Shanks</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Arlong</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>b'#\xeb\xc2U\xd5\xbb\x7f\xfb\x0f,39\xa4)#\r)\x0e\x01\x87t\x0b\xb9@\'\xc5\xcd\x90]=\xee\xf0\xe4\x1ca\\\x15\n$2\xccb\x1b9\xe0J\xa7L \x95\xf4PGL\xf1\x17+\xa0u\x0f5eQa\x9dp\x92\xe5\xf8\x8e,xO\xd2\xd0/"L\xd4\x1c\xf0a/\t\x91\xf9\xc0\x91\x81\xff.@D\xa8\xf0\xec\xf81\x03\xbf\x13\x10\xd3\x99\x8f\xfc\xb5\xba\xe2\x19\xb6\xa7^+\xb0&lt;=\xd3+E\xd8R4" [J\xb6z\x15L}0\x12\xec\xed\xf2\xc5\xde\x14\xea\x98p7\xd3\xd8-\x9a\x8av0\xa4&gt;\xf2{\x1b\xd6\x19\xdb\x07M\x1fv\xf2A\x11\xdf&lt;g\xa0\xa2:3\xa5\xf6x\xbdb^\x1cJ\x0b\xa8~\xb6\xf5\xff\x16\x11n\xe5g\xe5J4\xc1\xbf\xe5\xc3\xec\'^(*\xd6C\xe3\xf6\xe1;\x8b4\xc98X9OM`\xeb\xbf\x07\x13p\xe0\xaa\x9c\x92\xa6\x16"x\\\xa8\xb4\nw0\xb9\xde\x0e\xa7\xaa\xaa\xc4\x13WL\xdd\x98k\xe7\xfd\xf3\x92['</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>b'gAAAAABlNvDQYh94aBoH2mvXEItIY2MKasvxU8c6exQD4oDKxRo1qUXa93RQmhYIYkfBMrXVMuSqacyZwJdm2GTuuFGSfxvs0w=='</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Coordenadas.xlsx
+++ b/Coordenadas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E372454-E92A-4346-A98F-FE3FA44E3856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AF6FB9-E7B9-403E-8A11-E4AD82F39027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3005" yWindow="3005" windowWidth="19534" windowHeight="9304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Nickname</t>
   </si>
@@ -34,25 +34,28 @@
     <t>Firma</t>
   </si>
   <si>
+    <t>Emisor</t>
+  </si>
+  <si>
     <t>Luffy</t>
   </si>
   <si>
-    <t>b'\x07\xc6\xfb\xca\x1e\xae\xe1&gt;\xe4.\xae\x89Q\xf1B*\x19.^9\xfcN\xe2\xa9\xd3k\xa5\xfb\n\x14\xe5\xdd\xd7G\xc5\xaf6B\xaf\x94\xb1&gt;\x06\x0cUP\x04,\x0c\xdfF\x15\x10\xab\x84S\xd5\xa67\xda5\xdb\x9a\xc12{"\x0e&lt;[}\xfe?\x07\xe7\x06\x1ex.\x9e\xa0\xf0\xcd\xdd\t\x0fc\xc7\xd2\t\xd2\xe0\x9a\xe1S\xf6\xe5"\x1a5\xc7\x90j\x91-{L\x99\xc5b\xd32\xe7C\x82`\xe2!w\x89_\xc42\x04\x8a\xf3/1\x05\x86\x07,0\xaa\x81\xf4\xc1C\xf8\xed\x10\xc3\x11\xce(\x006\x08\xf2\x85\xadT\x0e\xde\xcd9t\xef\x84\x92\xe6#\xe7\xd2\x86Rv\x83\x80\xdc\xa7\xa1\x82\xde\x01\xcdF\x9d\xbd8\xd9)\xbau\xae\x1d\x8c\xfe\xeb\t}\x17\x91C\xfe\xd9\xa8\xcb\x9b\xab\xc3\xf5]\xf9P\xad\xe4p\x88\xf6c\xa9\x1eW+\x06\xf5\xe6\x1b\x91$\x91X=\xe8\xea\xd1DU\xf7\x97\xb2\xd6HZ\x11N\xc5\x88xLG \xc9\x08\x1aA?m\xe6\xb2\x8f\x9aQtn'</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlTPauf324nCWhE_y71FlloAxj6HOm8J_MITFCrP7BlgABMWTOP-D_y8uH1nK4YV_qbucFlI9atAkTUQa6Q-QQOFg8rA=='</t>
-  </si>
-  <si>
-    <t>b'v\xc8\xcbP\xa8\x8et\x1c\xc4$\xab}\xfb\xad[o\xc7\xcd\x86\xe3\x8e\xa1\xeb4\xc8\xd6\xf1\x19\xab\xf9\xfe\x82\xdfP\xfa\x96]\xcc\xee\xdai\xd9\x8eAB\x1fO\xdc\x1a\x02\x91]\x90\xa1\xef\xe9\xd3f\xdaM\xddb\x92k\xd76\xbcO\x12Xk{\xdb \x03\x97j\xc7: \xff\xa8\x8a\xfa\xf4\xe1\x840\xb8\xf3\xcaV\xa3$\x0c\x85\xeb\x0e\x90\xfd\xda\x1a\xdb\x1e\xbe\xb84\xd7\xf2K\xaa\xed"i\xfbF-\xc6\xdb\xf5U\xf9\x06+\x13\xd9\xb6\x83\xdb^\xac^[\xa2\xe0Q\x1ey\xe1&amp;\xe4`\x87\xfa\xcc\x86\xbf5k\xfe\xdcA\x13\xa6\x92r\x8e\xd6/\x90o7\xf0%[\x08\xb7\xe4\xee\x04\x11\xe8?\xf9G\xa2\x1c\xf2\x16\x8aj\x0e\\\xac\xfd\xeb\x8b\xfe\xe3\xf4\xf7X\xdc:\xc0\xb9\x0b?0\x9f{\xa9\x07\xa8&lt;\xfe\x0cO8\xfbhS\x1cmP\xc0\xa6\xd5\x95\xf6\xd9\xe8X\x98\xee\xc6\x02\xc5\xb1\xf2\xdet\x06\x8dw\xecte^\xa8(\xc7}\x9c\x9bh\xd0S\x01!Ln\xeao0\xaf'</t>
+    <t>b'\\\xae\x14\xbd\xe34M+\xc1*\'&amp;\xed\xaeR\xc8\xe2}\x8ao\x94\x1f\xe06\xd4p\xea\xb2\xa6\xe2FI\x12?\x92d\x15\xc6W\x93\x19\xf1\xd2_\x06\xb7B\x94K\xc2![(\xd1\\\x0f\xbd\x16,\xdf\x828\x1al\xfaV\x9b\xe6\x16^&amp;\x1ak\xf66\xd1\x8dw%"\x06\x00\xa9\xe7\xf1\r\x06C\xef \xafo\xff\xd3\x9f\xd7\xb5\x14h\x9c\x1e\xb6\xe9\x8a\xee\x07\xd6\xcf\xe7\xd2\x98\xc3u\xb7\xe1p~\xb1\xbe\xd1m\x11\x9e\xb8\x9f\xa8\xee&amp;\xfe\xcb\x0e\x00\xd9\x07\xce\\0\xfcz\x1f\x9c\x11\xfa\x00\xfcIWT\xaa8\xcc`\xf4\x18\xb2u\xf4:m\'"\x1bK\x1e*=\x14\xc8\xbbO\xad\xf8\xad\x01\xba\xe7\xf2\xd5\xf0\xf8\xe8,d\'\xa9\xbfu\xe3F2\xb7\xd4\xf3n\x9a\xf1\x04\xef\xb1;iY\'\x19%Vk\xe6Ag\xc5J\xb1\xcbJ\xbf\x95\xc1\xd9X\x01\xa1-\x99|]\xfcg\xa4|Q\x98\x91\xf74\x16\xe7\xb8_wZ\xff\x84\'V\x96\xbfd\x16\xeb\xab\x00h\x97=\\'</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlZG_ikVh3TKUFpU1rQlLBHbGL8iVH1J09z_varFxsFWQSDfSmIsEH6XRak_O-BNYFHGoTXh7NqA0ddK0LvgOlKXl-TA=='</t>
+  </si>
+  <si>
+    <t>b'n\xb0\nwa\x01\xc3\xf0\xb8,Oe\x89\x8a\x0f\xfe!\xc6S\xe3\xb18\x88\xc2=\xbd?\xee8\xfc\xc4w\xd7d\x1fP;gac\xcb\x91\xbd\x0bR\xa0\xdf*\x8dVK@\x81\r\xe6\x97B6b!\xac\xa8\xb3\xcd\xa8\x8c\xe8\xbb"\x04D\xd2S\xf2\xe3\r{\xf7\x91r\xc9A\xc3\x11I\\\xdd-+\xa0\xa0\x82Nq\xbc]\xc8\x11\xb2K\xf3\xad\xa3\t\x0c\xbd,w\x17\x0c\xc0\x13\xfev\x98J\x11\xb4\x82za\xfa(\x86\xa4\x06\xaa\x95\xf0=Qu\xbb\xcc&lt;\xcd\xcb3\xc6H\xd4+E2\x83\xd6\x90F\x9dXQ\x16\x10o\xcf.&gt;k\x1e5!7\x9fh9\x08\xfe\x83\xd1n\xf7\xcek\x197C\xa6~\xde2\r\xd7oE\xb5\xa4\x90\x92\x19z\x18\xf8\x90\xcau\x86K\xc1Ez\x15\x1e\xab\x18\x1ds\x1e\xdb(s|#\x88%\xc9e\xafR3\x99i\x0c\x99%G\xad/\xf0A\x7f\x9a\xf3\x11\xa5\x0e\x11&gt;:Ca\x1c\x90\r\xfd\xf7\x12\x17\x97\x8e\x7f\xd8?\x04\xa4_\xe0'</t>
   </si>
   <si>
     <t>Nami</t>
   </si>
   <si>
-    <t>b"\x8f,\x1c}\xee\xf7U\x97'?\xdeIN13\xd5)U\xf3\xa1\xac\xe7\xa1\x9e\xd2vY\xbc\xdb\xc0\x8bPluM\x13\x93\xbe\x7f\xcd\xbaK\x1b\\/\x1dq\xd0\xa2\xb1Y8\x91|\xb8\xcd\xf6\x04\xa1\xb1\xf1\x13\x9dP\x12\x03\x1d$\x83\x10\x82\xabDh\n\xb6{\xcc\xad\xf9\xe8\xba\xbb\xd5\x8e4F\x8f\xb1zu\xa0\x19\x11/\xd4\x0e\xa2qE\x10o\x9ce\x18:\x88\xedG\xbe?\x058\x0ew\xf1\xb9S}\x0b\xa6\x83pC\xb0\xc0\x94\x90/\xa4\xb3\\\x0c\x0c\xd6\r!\xf1\xd9\x9b#0\xe5C\xf2\x92\x85\xaf\xaae\xe2\x0e\xe0\xe5\xfbT\x9b_o\x0f6\xe0\xc3\xf3\xf4\xe5\xd4\x88\xad\x18\xda\xcf\xe3\x8dtSF|i\xdc\x9aYi\xb3\xb0\x03DH\xd0\x9c\xf7\xcb\xc5\x0f@\x85\x1a\xa6\xde\xd4\x07f\xdd~\r\x0ba^\xa6\x95|\xc4\xf4_!\x11\xad\xd9\x8ag\xa3\xbfx\x8d\xff8|\xa1e(\x0b\xb7\x18Fzg:\xb6X|\x80kt\x8d\xf0\xc7r-q\xf0\xcfC\x18\xc7\xa0\xaf"</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlOYb-YOXjn9VXrFRbH6wZ4LosZBkORriGiAV4B1HxI2FThXPXOGmmbea_MtD4gxmkotJfVcJ3b1sOlwQ7nuBRdR_KmQ=='</t>
+    <t>b':\xe7\xc4\x92\xa0|v\xda\xc5?\x90c]P\x809\xea\xb7c\xde\xe0\x13u\x0c_\xe4\xb8\xca\xf7m\xcfzX\xf2\xe2p\xba!R\x88\xcdfNc\x10\xa9\xcelw\xe9\xa4\x0b\x99~1+\x92\xca\xe0X\x15c\xd1:V\x177\xba\xb7G\xf9\xc9\x94\xac\xd7\xb9\x1f\x82\rP\xc86\xc0\x186i\xd7yC\xa7"\xb5J2\'I\xce&gt;\xe8\xc0\x0b\xf1\x95\xe2+j\x93\x7f\xd8\xa7\tt\xcb[\x81y\x0bOF\xf7&amp;\xf1;\x1d\xfc{\xe9\xe1\x9c\xc3\xb8\x06\xe0\xe8\x00\xd9\x84\xc7\x99\xd9\x0f\xba\xbb\x85\x05LK\x95\x8d\xaf8\xd6H\x05\x83\xc3&amp;Y\xa9\x9bx\xc4\xf87@1\x87\xbb:\xf7\x05\xe8"bZo\xe3l\xf3\x04\xcb\xe9\x06\xe1\x01\xac\xc9\x88W\xfd\xf0\xd85o\xc0r\xbc=\xf5\x94\xddlCiO\xfb\xfa\xb4\xc1\xc8\xf4\xb4\xbf\xee\x0e\x1a,\xde\xfb"\x82\xbeG\x1a\xfe9\xac\x9f\xb9\xcd\x83\xc2Y\xb1\xd2c?\x91d\xc6^\x0c\x1a\x11\x96\xb4\xbe\xbc\x01/\xca\xe3v\x04\xa2\x87'</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlYipX2SA4XGPXa9T_8SD83aMI9a39V-yAYIiGCGIlG9eLwAyD-JTbnLm4EDLd8sXx3zFShoWkfuelTSfYnQ1McdlBqA=='</t>
   </si>
   <si>
     <t>Maripili</t>
@@ -67,10 +70,13 @@
     <t>Sanji</t>
   </si>
   <si>
-    <t>b'\x15H\xd3\xd3\xcf\xec|\xf6\xac\xf9\xd3\xe9\xe9\x94\xf1\xeaa-T\x9f\xc2.e\x15\xafd\xd1\xce=L\xc9\xc3\xe8\x1e4-\xd3R\x9a\xc6\xa5X-\x16a2w\x0fz\xcbFw\x9f\x1f\xcePf\xbb\xf8\x88\xdeA\xfd\xba\x14J\x9dC\xe3\x7f&gt;\x94F\xcf\x0bh\xa7$\xcd\xaeNI)\xa2\xe4&lt;\xfe&amp;\xce\x8a\x94`N8;\xd3\x18\xe4\x1c`\x82J&gt;\xd2\xae\x8f\xae\xd4\xce\xc7\x96\xcdeb\x15VA\x99\xc93\x0f/\xeb\xf6\x9f\x19|\xb0\xf6\x98\xb1\xc9\xb3\x99u\xb3&lt;\x17*\x92%\xb5\x13s\xe5\xf4\xb0$n\xa9Q\x9b\xeb\x1f\x8f\t_\x0f\xaf{\xa0i\xfd\xda\x8a\xa5$\xc4\x89\x90\x99b\x1a\xdc\xe5\xca{f\x12\xde\x06\xc0orJ\xeaH\xa5H\xfb\xbb\xb8\x8c5zV\xa4N\xc29\xf0\xa8\x9a\xaemC\x853\xda\x15\x01\xa6\xaa5I\xb0+\xa6\xa7\x02&lt;\x9c\x11\x1a\xe0\x7f_\xf0\xa9\x1d0v\xa2s3f\x9ds\x83\xb1l\xba\xf0O\x80D\xa6\xf8\xd0F\xf1\xf3\x04L\x9d '</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlOtPiomb0JFqbBEbxYATf_cEGJXa7OTvG5QaKI1o_XQuA91Yi7lw1xc2cGFEzMGJL4p1rOYLoOmD_zg9aLZK6YIUmybt5dSNE1plcxb2QJBXkBdw='</t>
+    <t>b'\x03\xbc\x18^\xd5\xdd8\xaa\xcf#\x91\r\x86\xa5\xcf\x16\x81\x95\xd9\xb9\xa2\xbc\xbd\x97\x1e\xa8\x96\x90l\n\xa4\xbc\x00\xc0\xda\x135ByH\xb0j\x11\x1cX\xb87\xe3w,I\xd2\xaayF6\xc1E\x97\x84Jt\x80b\xed\x1e+H\x14\xc9\xea\x03\xac\xdb\x81\xdb\xfe\x84\xe1\x81\xcak\xa2L\xb7\x07\x12\x19\x18\xe8x\xc6\x06\xd1\xdb\xdf\xb6q\x0f\x0cx\xb3\xea\xa0\xed\x9d4\x83\x80@V\x98\x14\xc9}\\\x84r\x94#k\xa6t\xeeeP\x8b\xbc3\xf9v[\xbe\xf2\x0e\x828\xc4\x00\xfb\xd0\x8f\xeey\x17\xfcK\xa4\xdc\xf9\xc7]\xa4TC#\x01~\xae\xd2\xa9\xc0\xbair\x188\xf4p\xe4\xa1fs\x89|,!3,\x0ff\xff}\xfd\xc9\xd4[\xa6\xa1\x8c\x16Z\xedQ\xae~\x07m&lt;l\x89&lt;\x97s7\x9d\x88\xa1\xe5V\xc0\xd0\x98\xcc\x8e\xe9p\x0e\xac6\xa1\x08\x9e:\xba\xa4\x00\x81u\xf7\x03\x19\xf4\x89\xc8\xccf\xdb\x98%\xe1BQ\xcb7\xdc\x1b|C\xd6D\xd8\xc1\xb2\xe2j'</t>
+  </si>
+  <si>
+    <t>b'gAAAAABlZHAwkYVVbv_lOnsehm4v2m4HwuBazCnDt_8Mo4U0JmfF44nnVwqBTjMW-CP01IY9xFqa4Irci-j_ugdp5n1sl-WyiQ=='</t>
+  </si>
+  <si>
+    <t>b'\x86\xc3X\xe4\xa36YI\x80B\xad2\xb0\x9b\x10h\xb1\x05\xd1V\xb8\xc7\x85\xaa\x05K\xbc\xf9\x15p\xf6\x13\xed0\x08\xa9\xf0\x0b]\xbe#\x02\' \x82\t\x93\xb0\x0f\xd9\x8a\xae\xce\xd1\xbe\xa7\xf8\x1a\xff\xdf4\xec\x80]G\xbb\x102\x83d\xf0\xc1\x1b^\xf1\x01\xe1\xad\x94$\xcb\xc9\x88J\xe57\x8e5`\xb7`2gy8 /%]\xcc\xc8\x1d_G\x1b$P1\x87U\xc1\xc6\x12\xbf\xbal\x82;p\xa0\xfe\xbb\xd5\xf7\x9fV\xc7\x9b\x8f\xa1\xc0\xa9\xae\xdc\xa1^\xd5a\x9c\xbe\xbf\xd2a\xd0\xf1a\x1f\x92\xfd\xfe\x9e\xfd\xc4a\x0e="\x82Ms\x01T-\xe3\xb5\xaa\xa5\n\xcet9\xe0K.\xa4\xb6R\xa8\x06anL\x03\xad\x97\x13CZ"m\x87\xf6\xb6\x9e\x98E^|\x17\xbbtp@\xacH\x8e\x0cJyT\x07\xad\xf7\xeduM\xaa\xdeh\x0bR\x89\xbb\xc0\xef\xa6\xb8\xea\xb6\xc5o\x9cY\xb5S\xc8u\xdb\xf6\xc6\x17*\xb3\xb5\x06\\\xa5V\x99/\xa5\xe19NA/'</t>
   </si>
   <si>
     <t>Usopp</t>
@@ -452,20 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="52.88671875" customWidth="1"/>
-    <col min="3" max="3" width="46.5546875" customWidth="1"/>
-    <col min="4" max="4" width="255.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,78 +479,90 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Coordenadas.xlsx
+++ b/Coordenadas.xlsx
@@ -1,124 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\OneDrive\Documentos\UNI\TERCERO\CRIPTO\proyecto_cripto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AF6FB9-E7B9-403E-8A11-E4AD82F39027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
-  <si>
-    <t>Nickname</t>
-  </si>
-  <si>
-    <t>Key_symmetric</t>
-  </si>
-  <si>
-    <t>Coordenadas</t>
-  </si>
-  <si>
-    <t>Firma</t>
-  </si>
-  <si>
-    <t>Emisor</t>
-  </si>
-  <si>
-    <t>Luffy</t>
-  </si>
-  <si>
-    <t>b'\\\xae\x14\xbd\xe34M+\xc1*\'&amp;\xed\xaeR\xc8\xe2}\x8ao\x94\x1f\xe06\xd4p\xea\xb2\xa6\xe2FI\x12?\x92d\x15\xc6W\x93\x19\xf1\xd2_\x06\xb7B\x94K\xc2![(\xd1\\\x0f\xbd\x16,\xdf\x828\x1al\xfaV\x9b\xe6\x16^&amp;\x1ak\xf66\xd1\x8dw%"\x06\x00\xa9\xe7\xf1\r\x06C\xef \xafo\xff\xd3\x9f\xd7\xb5\x14h\x9c\x1e\xb6\xe9\x8a\xee\x07\xd6\xcf\xe7\xd2\x98\xc3u\xb7\xe1p~\xb1\xbe\xd1m\x11\x9e\xb8\x9f\xa8\xee&amp;\xfe\xcb\x0e\x00\xd9\x07\xce\\0\xfcz\x1f\x9c\x11\xfa\x00\xfcIWT\xaa8\xcc`\xf4\x18\xb2u\xf4:m\'"\x1bK\x1e*=\x14\xc8\xbbO\xad\xf8\xad\x01\xba\xe7\xf2\xd5\xf0\xf8\xe8,d\'\xa9\xbfu\xe3F2\xb7\xd4\xf3n\x9a\xf1\x04\xef\xb1;iY\'\x19%Vk\xe6Ag\xc5J\xb1\xcbJ\xbf\x95\xc1\xd9X\x01\xa1-\x99|]\xfcg\xa4|Q\x98\x91\xf74\x16\xe7\xb8_wZ\xff\x84\'V\x96\xbfd\x16\xeb\xab\x00h\x97=\\'</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlZG_ikVh3TKUFpU1rQlLBHbGL8iVH1J09z_varFxsFWQSDfSmIsEH6XRak_O-BNYFHGoTXh7NqA0ddK0LvgOlKXl-TA=='</t>
-  </si>
-  <si>
-    <t>b'n\xb0\nwa\x01\xc3\xf0\xb8,Oe\x89\x8a\x0f\xfe!\xc6S\xe3\xb18\x88\xc2=\xbd?\xee8\xfc\xc4w\xd7d\x1fP;gac\xcb\x91\xbd\x0bR\xa0\xdf*\x8dVK@\x81\r\xe6\x97B6b!\xac\xa8\xb3\xcd\xa8\x8c\xe8\xbb"\x04D\xd2S\xf2\xe3\r{\xf7\x91r\xc9A\xc3\x11I\\\xdd-+\xa0\xa0\x82Nq\xbc]\xc8\x11\xb2K\xf3\xad\xa3\t\x0c\xbd,w\x17\x0c\xc0\x13\xfev\x98J\x11\xb4\x82za\xfa(\x86\xa4\x06\xaa\x95\xf0=Qu\xbb\xcc&lt;\xcd\xcb3\xc6H\xd4+E2\x83\xd6\x90F\x9dXQ\x16\x10o\xcf.&gt;k\x1e5!7\x9fh9\x08\xfe\x83\xd1n\xf7\xcek\x197C\xa6~\xde2\r\xd7oE\xb5\xa4\x90\x92\x19z\x18\xf8\x90\xcau\x86K\xc1Ez\x15\x1e\xab\x18\x1ds\x1e\xdb(s|#\x88%\xc9e\xafR3\x99i\x0c\x99%G\xad/\xf0A\x7f\x9a\xf3\x11\xa5\x0e\x11&gt;:Ca\x1c\x90\r\xfd\xf7\x12\x17\x97\x8e\x7f\xd8?\x04\xa4_\xe0'</t>
-  </si>
-  <si>
-    <t>Nami</t>
-  </si>
-  <si>
-    <t>b':\xe7\xc4\x92\xa0|v\xda\xc5?\x90c]P\x809\xea\xb7c\xde\xe0\x13u\x0c_\xe4\xb8\xca\xf7m\xcfzX\xf2\xe2p\xba!R\x88\xcdfNc\x10\xa9\xcelw\xe9\xa4\x0b\x99~1+\x92\xca\xe0X\x15c\xd1:V\x177\xba\xb7G\xf9\xc9\x94\xac\xd7\xb9\x1f\x82\rP\xc86\xc0\x186i\xd7yC\xa7"\xb5J2\'I\xce&gt;\xe8\xc0\x0b\xf1\x95\xe2+j\x93\x7f\xd8\xa7\tt\xcb[\x81y\x0bOF\xf7&amp;\xf1;\x1d\xfc{\xe9\xe1\x9c\xc3\xb8\x06\xe0\xe8\x00\xd9\x84\xc7\x99\xd9\x0f\xba\xbb\x85\x05LK\x95\x8d\xaf8\xd6H\x05\x83\xc3&amp;Y\xa9\x9bx\xc4\xf87@1\x87\xbb:\xf7\x05\xe8"bZo\xe3l\xf3\x04\xcb\xe9\x06\xe1\x01\xac\xc9\x88W\xfd\xf0\xd85o\xc0r\xbc=\xf5\x94\xddlCiO\xfb\xfa\xb4\xc1\xc8\xf4\xb4\xbf\xee\x0e\x1a,\xde\xfb"\x82\xbeG\x1a\xfe9\xac\x9f\xb9\xcd\x83\xc2Y\xb1\xd2c?\x91d\xc6^\x0c\x1a\x11\x96\xb4\xbe\xbc\x01/\xca\xe3v\x04\xa2\x87'</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlYipX2SA4XGPXa9T_8SD83aMI9a39V-yAYIiGCGIlG9eLwAyD-JTbnLm4EDLd8sXx3zFShoWkfuelTSfYnQ1McdlBqA=='</t>
-  </si>
-  <si>
-    <t>Maripili</t>
-  </si>
-  <si>
-    <t>b"+\x8d\xffM\xe1Ti\xd1S^\xc4s\xc4\xec\xaegF\x03hB|NWLm\xcb[\xc9\xcb\x9c\x9ei\xa5\xbb|\x9d\x84['\xb91\x83\x90\x1e\xd2K\xf2[\x035\x9e\xeb\xf7\xa3\x93\xf5\xb0&amp;&lt;\xe6v\x96\x89\x8e\xb8?%\x82\\\xca\xe7oV\x0c\xadU\xd2\x9b\x00\x1b#\xe07\x8c\xed\xfc\xb2\xb5{\xcb)\xd49\xaf\x99\xac^\xc3\xdbO\x0bR\xbfZ&amp;\xa5\x8b^\xe5\x7f\x0e\xc5\x04\xac\xa4\x97\x17\xeaC\x1a\xf2\xc0[7\x81Z\x02\xe7\xae\xf7e3[\xf9py\xde\xdf4\xd3\xea\x868R\xe4\tSPqN\xa4\xd6.Z\xe37\xf8\n\xfa\x84\x94R\xfa\x9dX\x06F\xa5SF}h\xab\x93\xc0$\xb7\xe7\x1b(\xe6\x98.\x14/\x7f\xca\x83\xf6\x8c\xd7J\xc9\x0e\xaf\x03B&amp;\xeaB=f\x98\xe2\x92L\x91\xa0n\x89:\xf1g\xeb%\xaeUK(\xba\xc6\xbef\x16zehG\xea=\xaaS\xc4o\xae|\x08\xf5\xbe]T\x8dd\xef\xa4L-N\xe8D\n\x0c\xe5\xb4y\xa8"</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlOtRCmpIkP4Z9uUZnV8kFi6TSCh4UnjqS7_t3qfft3lLKmjOLzrauGuXgD2gnN_sjIa5YzEBsrt2wSQDJBNpBYu03Qg=='</t>
-  </si>
-  <si>
-    <t>Sanji</t>
-  </si>
-  <si>
-    <t>b'\x03\xbc\x18^\xd5\xdd8\xaa\xcf#\x91\r\x86\xa5\xcf\x16\x81\x95\xd9\xb9\xa2\xbc\xbd\x97\x1e\xa8\x96\x90l\n\xa4\xbc\x00\xc0\xda\x135ByH\xb0j\x11\x1cX\xb87\xe3w,I\xd2\xaayF6\xc1E\x97\x84Jt\x80b\xed\x1e+H\x14\xc9\xea\x03\xac\xdb\x81\xdb\xfe\x84\xe1\x81\xcak\xa2L\xb7\x07\x12\x19\x18\xe8x\xc6\x06\xd1\xdb\xdf\xb6q\x0f\x0cx\xb3\xea\xa0\xed\x9d4\x83\x80@V\x98\x14\xc9}\\\x84r\x94#k\xa6t\xeeeP\x8b\xbc3\xf9v[\xbe\xf2\x0e\x828\xc4\x00\xfb\xd0\x8f\xeey\x17\xfcK\xa4\xdc\xf9\xc7]\xa4TC#\x01~\xae\xd2\xa9\xc0\xbair\x188\xf4p\xe4\xa1fs\x89|,!3,\x0ff\xff}\xfd\xc9\xd4[\xa6\xa1\x8c\x16Z\xedQ\xae~\x07m&lt;l\x89&lt;\x97s7\x9d\x88\xa1\xe5V\xc0\xd0\x98\xcc\x8e\xe9p\x0e\xac6\xa1\x08\x9e:\xba\xa4\x00\x81u\xf7\x03\x19\xf4\x89\xc8\xccf\xdb\x98%\xe1BQ\xcb7\xdc\x1b|C\xd6D\xd8\xc1\xb2\xe2j'</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlZHAwkYVVbv_lOnsehm4v2m4HwuBazCnDt_8Mo4U0JmfF44nnVwqBTjMW-CP01IY9xFqa4Irci-j_ugdp5n1sl-WyiQ=='</t>
-  </si>
-  <si>
-    <t>b'\x86\xc3X\xe4\xa36YI\x80B\xad2\xb0\x9b\x10h\xb1\x05\xd1V\xb8\xc7\x85\xaa\x05K\xbc\xf9\x15p\xf6\x13\xed0\x08\xa9\xf0\x0b]\xbe#\x02\' \x82\t\x93\xb0\x0f\xd9\x8a\xae\xce\xd1\xbe\xa7\xf8\x1a\xff\xdf4\xec\x80]G\xbb\x102\x83d\xf0\xc1\x1b^\xf1\x01\xe1\xad\x94$\xcb\xc9\x88J\xe57\x8e5`\xb7`2gy8 /%]\xcc\xc8\x1d_G\x1b$P1\x87U\xc1\xc6\x12\xbf\xbal\x82;p\xa0\xfe\xbb\xd5\xf7\x9fV\xc7\x9b\x8f\xa1\xc0\xa9\xae\xdc\xa1^\xd5a\x9c\xbe\xbf\xd2a\xd0\xf1a\x1f\x92\xfd\xfe\x9e\xfd\xc4a\x0e="\x82Ms\x01T-\xe3\xb5\xaa\xa5\n\xcet9\xe0K.\xa4\xb6R\xa8\x06anL\x03\xad\x97\x13CZ"m\x87\xf6\xb6\x9e\x98E^|\x17\xbbtp@\xacH\x8e\x0cJyT\x07\xad\xf7\xeduM\xaa\xdeh\x0bR\x89\xbb\xc0\xef\xa6\xb8\xea\xb6\xc5o\x9cY\xb5S\xc8u\xdb\xf6\xc6\x17*\xb3\xb5\x06\\\xa5V\x99/\xa5\xe19NA/'</t>
-  </si>
-  <si>
-    <t>Usopp</t>
-  </si>
-  <si>
-    <t>Zoro</t>
-  </si>
-  <si>
-    <t>Shanks</t>
-  </si>
-  <si>
-    <t>Arlong</t>
-  </si>
-  <si>
-    <t>b'#\xeb\xc2U\xd5\xbb\x7f\xfb\x0f,39\xa4)#\r)\x0e\x01\x87t\x0b\xb9@\'\xc5\xcd\x90]=\xee\xf0\xe4\x1ca\\\x15\n$2\xccb\x1b9\xe0J\xa7L \x95\xf4PGL\xf1\x17+\xa0u\x0f5eQa\x9dp\x92\xe5\xf8\x8e,xO\xd2\xd0/"L\xd4\x1c\xf0a/\t\x91\xf9\xc0\x91\x81\xff.@D\xa8\xf0\xec\xf81\x03\xbf\x13\x10\xd3\x99\x8f\xfc\xb5\xba\xe2\x19\xb6\xa7^+\xb0&lt;=\xd3+E\xd8R4" [J\xb6z\x15L}0\x12\xec\xed\xf2\xc5\xde\x14\xea\x98p7\xd3\xd8-\x9a\x8av0\xa4&gt;\xf2{\x1b\xd6\x19\xdb\x07M\x1fv\xf2A\x11\xdf&lt;g\xa0\xa2:3\xa5\xf6x\xbdb^\x1cJ\x0b\xa8~\xb6\xf5\xff\x16\x11n\xe5g\xe5J4\xc1\xbf\xe5\xc3\xec\'^(*\xd6C\xe3\xf6\xe1;\x8b4\xc98X9OM`\xeb\xbf\x07\x13p\xe0\xaa\x9c\x92\xa6\x16"x\\\xa8\xb4\nw0\xb9\xde\x0e\xa7\xaa\xaa\xc4\x13WL\xdd\x98k\xe7\xfd\xf3\x92['</t>
-  </si>
-  <si>
-    <t>b'gAAAAABlNvDQYh94aBoH2mvXEItIY2MKasvxU8c6exQD4oDKxRo1qUXa93RQmhYIYkfBMrXVMuSqacyZwJdm2GTuuFGSfxvs0w=='</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,112 +420,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nickname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Key_symmetric</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Coordenadas</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Firma</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Emisor</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>b'\\\xae\x14\xbd\xe34M+\xc1*\'&amp;\xed\xaeR\xc8\xe2}\x8ao\x94\x1f\xe06\xd4p\xea\xb2\xa6\xe2FI\x12?\x92d\x15\xc6W\x93\x19\xf1\xd2_\x06\xb7B\x94K\xc2![(\xd1\\\x0f\xbd\x16,\xdf\x828\x1al\xfaV\x9b\xe6\x16^&amp;\x1ak\xf66\xd1\x8dw%"\x06\x00\xa9\xe7\xf1\r\x06C\xef \xafo\xff\xd3\x9f\xd7\xb5\x14h\x9c\x1e\xb6\xe9\x8a\xee\x07\xd6\xcf\xe7\xd2\x98\xc3u\xb7\xe1p~\xb1\xbe\xd1m\x11\x9e\xb8\x9f\xa8\xee&amp;\xfe\xcb\x0e\x00\xd9\x07\xce\\0\xfcz\x1f\x9c\x11\xfa\x00\xfcIWT\xaa8\xcc`\xf4\x18\xb2u\xf4:m\'"\x1bK\x1e*=\x14\xc8\xbbO\xad\xf8\xad\x01\xba\xe7\xf2\xd5\xf0\xf8\xe8,d\'\xa9\xbfu\xe3F2\xb7\xd4\xf3n\x9a\xf1\x04\xef\xb1;iY\'\x19%Vk\xe6Ag\xc5J\xb1\xcbJ\xbf\x95\xc1\xd9X\x01\xa1-\x99|]\xfcg\xa4|Q\x98\x91\xf74\x16\xe7\xb8_wZ\xff\x84\'V\x96\xbfd\x16\xeb\xab\x00h\x97=\\'</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlZG_ikVh3TKUFpU1rQlLBHbGL8iVH1J09z_varFxsFWQSDfSmIsEH6XRak_O-BNYFHGoTXh7NqA0ddK0LvgOlKXl-TA=='</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>b'n\xb0\nwa\x01\xc3\xf0\xb8,Oe\x89\x8a\x0f\xfe!\xc6S\xe3\xb18\x88\xc2=\xbd?\xee8\xfc\xc4w\xd7d\x1fP;gac\xcb\x91\xbd\x0bR\xa0\xdf*\x8dVK@\x81\r\xe6\x97B6b!\xac\xa8\xb3\xcd\xa8\x8c\xe8\xbb"\x04D\xd2S\xf2\xe3\r{\xf7\x91r\xc9A\xc3\x11I\\\xdd-+\xa0\xa0\x82Nq\xbc]\xc8\x11\xb2K\xf3\xad\xa3\t\x0c\xbd,w\x17\x0c\xc0\x13\xfev\x98J\x11\xb4\x82za\xfa(\x86\xa4\x06\xaa\x95\xf0=Qu\xbb\xcc&lt;\xcd\xcb3\xc6H\xd4+E2\x83\xd6\x90F\x9dXQ\x16\x10o\xcf.&gt;k\x1e5!7\x9fh9\x08\xfe\x83\xd1n\xf7\xcek\x197C\xa6~\xde2\r\xd7oE\xb5\xa4\x90\x92\x19z\x18\xf8\x90\xcau\x86K\xc1Ez\x15\x1e\xab\x18\x1ds\x1e\xdb(s|#\x88%\xc9e\xafR3\x99i\x0c\x99%G\xad/\xf0A\x7f\x9a\xf3\x11\xa5\x0e\x11&gt;:Ca\x1c\x90\r\xfd\xf7\x12\x17\x97\x8e\x7f\xd8?\x04\xa4_\xe0'</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Nami</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b'0\xf8\xaa\xa3~\x80+\xc1\xf3\x91\xbb1\xe4[\xb1 x\xf5\x94\x1d?2\x01\xcc\xb2\xeb\xff\x8a\x88\x07\xc8\xc6\x8d\xd4\x82\xc4\xeeK\x0c\x1a\x7f\xc6\xdb7d\xbaK6\xcf\xf9*\xc9\xff\x90\r\'=\xd8b-W\x91v\xd2\x82\x03\xd5#V\xc0!F\xa0\x14(3\xc3\xe5V\xf9\x8fr&amp;\x94\x94\x07\xf7\xeb\xabbq%\xf4)S\xce:?\\\x008.\xb4\xa7\xc0\xf7\x876_\xce\xf5\x1a\xf3V\xd4\xb5\x04\xd1\x8d\x12\xcaX\x85\xea\xab\xf7\x8e\xab\x111WZ\xf3\xe3\xb8\xcf\x06z"\x9b\xe7A\x8a\xe2\x0ec\'\x8f\tieF\xfb\x19!\xe6\x900\xc2\xf0\x8f\xa3\xbf=p\xb8\xe3_\xf1\x86\xf4\x9a\xed\xa8T\xce\xb0Z\x8d\x1di\xbenH\xd9\x91\xc9\xce\x9e\x0e\xd6\xdb\xae\xef\xc2\xfe\x1b\x02\xd7\xc3\xb1\xcb1\xa5\x02\xaa\x1a?-\xea\xf3\xcc\x0f\xae\xec}N\x03\x9eF\x0e)KR\n\x0e\xb8\xddr\xf40\x02,\x03\x06 iT_s\xfb\xef\xe9\xfc\x9e[\xce\x16S\xad@\xfb5\xf0\xb06'</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlZ7MvuhhaTsWFLfNa04A_wEJjelZ9Z4WtmiYS3goiJZ_WkL_rAM1bQ6egVaahM8tdLhwSZUqY2CHGPVfhDbS9PYNLZw=='</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>b'\x98$\x89K\xac\xde!\x8e"\x97S\xe9@\xaa\r\x91\xb2\x17V\xd2\x97\xf0\xb6\x19Y\xb6R:\xef1\x81\x8a\xd9\xf0\xf9\x8c\x98v\x1c\xb6\xcd\x98\xf2\x0f\xa2\x8du\x14\xa9\xc3\xdb\x88\xacv#\x10\x88r\xf0-\x05\x8d\xcf\xfa\xe3\xdfL\x05\x19D\xa6u8\x94\xbd\xa9\xffcB\xd3\xbe\xf6\xc0\xf6")\x02\x0f\x1d8\xfd\xb1\xc3(\xe2\xd4\xe9\xfa\xda%J\xa3%\xb6\xd4\xb8\xdf\xf4D9\x91\xf1\xad\xee\xc79\x15M\xc0N\xf1WG\xb4\xfd\xc6\xe6BL\xd9\xc4\x010\xefmko\xbe`\xb0\xfa\xfeu\x95\xe6Y9\xec8b\x05\x0e\xd3\x9cHlH\x17\x0cjb\x9cF&amp;&lt;2\xb9\x9a\xca\xd9\xd9\x97\xe9\x0b\x8a\xf8\x83F7\xb0\xe7\xb9_\xde\xb0\xe4G\xea\x00n\xd3a7\xcb\x95a\xe7\xd0\xf2\xbb\xab\xd8\x1c\x90`1lZpGS\xc9\x86F\xe5I\x14\xfe\xee\x04HN\x9ag\xa5\xf8\xea\xf9?\xf9-\xddz\x15W\xbd\xa8\xe5\x12\xd9\x9f\xe4\xedi\x0c\x03$\t\x90\xfc\xf7\xc4\x17\xac\xd0l'</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Maripili</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>b"k\xbb\xc4\xd0\xd3!\x89\x9d\xeb\xb4\x17\xd3\xe5(\xe8\x8d)\xbc\x12M|\xc5p#l|\x0f\xe6\xa8R\x97V\xefZ&lt;\x80\x15\xe8?\x04\xdb%\xa9\xa4s\xb0d\x8c\xf8\x1f\xd6s\x89\x15\x8d\x14\x1f\t\x90k\xbeg\xa9`q \x08\xc1\xe5\xda &gt;h\xca\xfc\xe0\x93\x9e\x92ytu\x96\xa2\x96\xa6\x16\x0f\xb7\xaf\x0euM\xc5\xdb_\xbd#~s\xe2\x13\xb8\x99\xff\x0c2\x99\xc9\x10`\xf2\xb6\xf1\xba\x9f\x88K\x8c\xf0Y|4\x10=-\xb4!S\xce\xffy\x8e4\x83%\xe4\xc8_\xd44\x17)\x1a9L\xf4'\xebTR\xb5\xde\xc7V%\xb0y;&lt;\x91\x95\x99v\xdc\xab\xf9\xf3r\x1d\x013\xe0\xceU\x82\t\x86\xec\xfbg\xbb\xcf\x84\xbd\xdd\x8c\xde;!\xb5\xa2\x16\xf4`\xef\x00z\xb8\xa6\x8b\xcc\xefd\xf3\x1c\xca\xeb\xbf0\xdc\x116P\x0c\xd0\x8e\xb2\xfd\xd6\xe1\xe7lZ\xc5{\xe6\x0c\x8d\t\x05\xff\x1a\x9d\xb6\xe4\xe3\\c\xfb\xbe\x98\x9f\x8f\xf6)\x06\xe5\x9c\xf4\xceR6:\xab\x96"</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlZ7LzHpBc5BBcf6IIylUPBQwHQKSM_cz9YR-0dqEChNbPMmlbZwRmE2tvdWP7KPbYCuegNaj70bZmadMNJYG50d7bSQ=='</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>b'\x0b\xf0\x83G\x07H\xcdAr::\xf5o\xc0\x15\x8aD\x7f\xfe_\x0f\xc3\x1fen\x80\xf7\xa5\xcf\xff\xa28\xd7"j\x19\xdb~\x06\x0c$h3 K\xd7\x16\xc9\x04-\x8e:8V\xd5\xeb\xec\xfb\xa5\x19 #\x9c\x9eA\xee\x19\xa1\x07\xd5e\x1b\xd3+\xc7Ohw\xa4\xac\xe6u\\A\xceY\xb8\x82\x9a\x11\x94\xde\xac\x1a\xe0-\xdc\x89Y\xcf\x82!\xe6\xb0\xa0^\xee\xb1\xb0\xea\xa9\xbf\xd8\xce\x8cS\x90\xa6,O\xdc\x923j\xff\xcf\x9a\xd7\x8f\xd2\xce\xb2\xf2E\xf5\xf1\x99\xa556Y\x9a\xb3&gt;I:\x869\x01\x94\xc0\xb6`\xc4-\x1eJ&gt;\x17=\xab\x931i\x90\xffi\xfd\x01\xb9\x89\xc7\xc4\xbd\x15l\xa4A&lt;\xdd\x11R\x97\x1e\xc4"F\xad\xb6n\x92\x95\x81\xf4\x11\x0c\x9d\xc2\xf2Y\xc5\xd9nd\xf2\xd3\xb1\x9b\xf1\x13\xd1X\x0c\x07\x19P\xd8\xbbM\x10\x8b\x8e\x078rh\x80&amp;\xee\x7f\x8f\xb9\x81\x81\xc2!]&gt;\x9d\xe0\xc9\x84\xf9\x1bG$\xd0\x9e^&amp;\xf0\xecA\x8d7\x8a'</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Luffy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Usopp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Zoro</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Shanks</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Arlong</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b"a\xa8V\xb9\xb11\x1f\x10\xdbe\xd0\xcb5u\xaf\xb6\x1d\x0bdS'\xcd\xeeN\x1dz\x08\x06\xb1\x8b\xe5m\xed\x14\x85&amp;\x900\xe2\xf3\xa9W\x81V\x18\xb1\xd8\xef&lt;\xf3\xb9\x0f\x7f\xd9\xf6l\x8d\xcf\x88\xa3\xce\xff\x8a\xd1\t\x0c_m\xf5\xea\xfd\xa8Dk\x82\xeaD\x00\xa2H\xd0\xaa;\xcd\xd8\x95!\xb3}\xc5\x8d\xa8\x11i\x9c\xf2\x06\x8f\xd4\xb2\xd8\xb5\x0f\x02\xb4\n\xcd?Z,\xe4n\x96\x1dlA\x0596\x85\xe7twkv\xb8&lt;\xe5\xe3iB\xd9D\xc8\xdc\x9d\xd1eK}\xf2\x9a\x9f\xdbXxSW\xe5\xdb\xb5p\xd1a\x0b\xe8&lt;\x83\x9d%I\xc0t\x8f\xf0\xd8\xa4\xaa\xf7\xaa\xab\xff\xab\x16u\xc0|\x93\t\x01\xe8\x1aa7\xa0\x8b\xce\xde\xb0\xf0B\x8a\xdf\xf7\x92\xdd\x9c\xe2\x13\xe2\x9b\xbb\x99\x928\xe4\x92\x1d\x11\x860U\xcbH[\x0c\xd9\x1e\x04z\xe9b\xc0]\xa1\xbe\xb9?,$q\x0b\t\xaf\x8f\xa3D9\x8d\x9e-;\xd8\xb0\x03)~e\xe4:\x8a\x17\x82\x86+\xc0"</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>b'gAAAAABlZ7NfynoO_WERbFMYmxFhekQNJ8p1tEEqRzjFIPWNtTzUEX5jVfXE_DnpkEYkLUBh5CaLAMAw1fRmMO66P-Y1k0ByrA=='</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>b"\x0b'\xc3\x93\x0f\xd4\xc7\x84\x8b\x9a\xdc\xc10\\\xa1\x07jxzM\xde\xb0\xd3\xe7\xa3\x04\x9b\xb6(u\xe8\x00\x0f\x065\x81\tl\xe5&amp;\xd7\xd0\xbf&gt;k\x93\xcb\x00&gt;\xd9\xb0~\x03\x86\x9a\x9a\xebA*9UP\x01\x83&lt;j\x19\x13S\xec`\x11c\xc3f#\xcc\x1f\xab\xablN\xfa\xc1I\xe3\xdd\x03\xb5/\xc1\x82\xa3\xdd\x19\xf1E\xb5\x80\xbf'^\x19,)\xf9\x90i\xf7\x88\xe9\xd2\x12\xe8\xfd)\xf7\xe9\x9fy\x11\xe6R4\xe19z\xb1]\xbe \xb4\xdda\xfb\x02\xa7A`\xaek\xb7\xb7\xe1\\$b\xfc7\r\x07\x8e# \xa5W\xe5\x13\xbd\t\xf7\xb0g\\\x95yb1=\x94\x82\x18B\xd9f\xdf\xf9\x1e\x8a\x9d\xac}{\xe97(GD\xab1\xe8mt\xb3\xc0K\xed\x05\x93x\xb5v\x9bV\xaa\xe9\xd6\xf3\xcag\xee\xa8\xb2\x1d\xcaJ\x13\xcc\x8f\xf8\xd4\x83\xeaq\xeb\x1bC`\x07!E\xa1\x04f\x0b\xb6H\x92;\xa7\x82\x0b}\x9c&amp;\xdd\xedI\xac\x97\xec\xc0\x8aTJ\xc0"</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Sanji</t>
+        </is>
       </c>
     </row>
   </sheetData>
